--- a/senosiain/Alta Trabajadores/horas proceso alta trabajadores.xlsx
+++ b/senosiain/Alta Trabajadores/horas proceso alta trabajadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Terceros\fortia\Senosiain\Alta Trabajadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53977144-8AB9-481F-A558-067970338B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A1D90D-5DFC-447B-BD08-7500E1A08B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:H994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -541,7 +541,7 @@
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
-        <v>45740</v>
+        <v>45831</v>
       </c>
       <c r="B3" s="2">
         <v>0.41666666666666669</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
-        <v>45741</v>
+        <v>45832</v>
       </c>
       <c r="B5" s="2">
         <v>0.47916666666666669</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
-        <v>45742</v>
+        <v>45834</v>
       </c>
       <c r="B7" s="2">
         <v>0.5</v>
